--- a/BackTest/2019-10-28 BackTest MITH.xlsx
+++ b/BackTest/2019-10-28 BackTest MITH.xlsx
@@ -456,548 +456,480 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>226631.0146</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.16666666666668</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14.26666666666668</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>22296.9208</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14.26666666666667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C6" t="n">
         <v>14.1</v>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
+      <c r="D6" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>140133.1295</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14.23333333333334</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14.20000000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1916.641</v>
+      </c>
+      <c r="G8" t="n">
+        <v>14.20000000000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>23011.0018</v>
+      </c>
+      <c r="G9" t="n">
+        <v>14.30000000000001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>72743.0043</v>
+      </c>
+      <c r="G10" t="n">
+        <v>14.30000000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>53324.9827</v>
+      </c>
+      <c r="G11" t="n">
+        <v>14.36666666666667</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>50771.0484</v>
+      </c>
+      <c r="G12" t="n">
+        <v>14.36666666666667</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6978.462</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14.43333333333334</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" t="n">
+        <v>14.50000000000001</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>37041.614</v>
+      </c>
+      <c r="G15" t="n">
+        <v>14.46666666666668</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>226631.0146</v>
-      </c>
-      <c r="G3" t="n">
-        <v>14.16666666666668</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="E4" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14.26666666666668</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>22296.9208</v>
-      </c>
-      <c r="G5" t="n">
-        <v>14.26666666666667</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>140133.1295</v>
-      </c>
-      <c r="G6" t="n">
-        <v>14.23333333333334</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-      <c r="G7" t="n">
-        <v>14.20000000000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1916.641</v>
-      </c>
-      <c r="G8" t="n">
-        <v>14.20000000000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="E9" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>23011.0018</v>
-      </c>
-      <c r="G9" t="n">
-        <v>14.30000000000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="D10" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>72743.0043</v>
-      </c>
-      <c r="G10" t="n">
-        <v>14.30000000000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E11" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>53324.9827</v>
-      </c>
-      <c r="G11" t="n">
-        <v>14.36666666666667</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E12" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>50771.0484</v>
-      </c>
-      <c r="G12" t="n">
-        <v>14.36666666666667</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6978.462</v>
-      </c>
-      <c r="G13" t="n">
-        <v>14.43333333333334</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D14" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E14" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G14" t="n">
-        <v>14.50000000000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>37041.614</v>
-      </c>
-      <c r="G15" t="n">
-        <v>14.46666666666668</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1031,7 +963,9 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1064,15 +998,15 @@
         <v>14.40000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1105,15 +1039,15 @@
         <v>14.43333333333334</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1152,7 +1086,9 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1185,15 +1121,15 @@
         <v>14.46666666666668</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1226,15 +1162,15 @@
         <v>14.50000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1267,15 +1203,15 @@
         <v>14.43333333333334</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1314,7 +1250,9 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1347,15 +1285,15 @@
         <v>14.43333333333334</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1394,7 +1332,9 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1433,7 +1373,9 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1472,7 +1414,9 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1511,7 +1455,9 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1550,7 +1496,9 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1589,7 +1537,9 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1628,7 +1578,9 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1667,7 +1619,9 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1706,7 +1660,9 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1745,7 +1701,9 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1784,7 +1742,9 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1823,7 +1783,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1862,7 +1824,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1901,7 +1865,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1940,7 +1906,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1979,7 +1947,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2018,7 +1988,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2057,7 +2029,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2096,7 +2070,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2135,7 +2111,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2168,15 +2146,15 @@
         <v>14.36666666666668</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2209,15 +2187,15 @@
         <v>14.40000000000001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2250,15 +2228,15 @@
         <v>14.30000000000001</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2291,15 +2269,15 @@
         <v>14.33333333333334</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2332,15 +2310,15 @@
         <v>14.30000000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2373,15 +2351,15 @@
         <v>14.30000000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2420,7 +2398,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2453,15 +2433,15 @@
         <v>14.36666666666667</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2494,15 +2474,15 @@
         <v>14.50000000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2535,15 +2515,15 @@
         <v>14.56666666666668</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2582,7 +2562,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2621,7 +2603,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2660,7 +2644,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2699,7 +2685,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2738,7 +2726,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2777,7 +2767,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2816,7 +2808,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2855,7 +2849,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2894,7 +2890,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2933,7 +2931,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2972,7 +2972,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3011,7 +3013,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3050,7 +3054,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3089,7 +3095,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3128,7 +3136,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3167,7 +3177,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3206,7 +3218,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3245,7 +3259,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3284,7 +3300,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3323,7 +3341,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3362,7 +3382,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3401,7 +3423,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3440,7 +3464,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3479,7 +3505,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3518,7 +3546,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3557,7 +3587,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3596,7 +3628,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3635,13 +3669,17 @@
         <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1.050555555555556</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3704,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3739,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3774,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3809,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3844,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -4299,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -8184,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest MITH.xlsx
+++ b/BackTest/2019-10-28 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-550884.4341000002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-659494.4341000002</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-698163.7621000002</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-698163.7621000002</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-698163.7621000002</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1903,17 +1903,11 @@
         <v>-1404574.283</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1946,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1979,17 +1969,11 @@
         <v>-1397407.862</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2018,17 +2002,11 @@
         <v>-1397397.862</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2057,17 +2035,11 @@
         <v>-1534379.0598</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2096,17 +2068,11 @@
         <v>-1542304.0598</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2135,17 +2101,11 @@
         <v>-1526230.0598</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2174,17 +2134,11 @@
         <v>-1464468.7978</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2213,17 +2167,11 @@
         <v>-1432009.7978</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2252,17 +2200,11 @@
         <v>-1731596.5234</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2291,17 +2233,11 @@
         <v>-1731596.5234</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2334,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2371,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2408,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2445,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2482,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2515,17 +2431,11 @@
         <v>-1284064.4332</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2558,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2595,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2632,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2669,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2706,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2739,17 +2629,11 @@
         <v>-1425290.1227</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2778,17 +2662,11 @@
         <v>-1498033.127</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2821,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2858,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2895,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2932,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2969,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3006,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3043,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3080,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3117,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3154,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3191,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3228,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3265,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3302,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3339,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3376,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3413,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3450,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3524,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3561,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3598,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3635,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3672,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3705,17 +3487,11 @@
         <v>-1585268.7987</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3744,17 +3520,15 @@
         <v>-1584569.1436</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>14.4</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3783,15 +3557,17 @@
         <v>-1592284.6713</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>14.6</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -3822,15 +3598,17 @@
         <v>-1592284.6713</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>14.5</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3861,17 +3639,15 @@
         <v>-1599928.2688</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>14.5</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3900,15 +3676,17 @@
         <v>-1599928.2688</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>14.4</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -3939,12 +3717,14 @@
         <v>-1599917.2688</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>14.4</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3978,12 +3758,14 @@
         <v>-1617648.2688</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>14.5</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4017,12 +3799,14 @@
         <v>-1621923.6856</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>14.4</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4056,12 +3840,14 @@
         <v>-1617837.6856</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>14.3</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4095,12 +3881,14 @@
         <v>-1623013.3086</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>14.5</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4134,12 +3922,14 @@
         <v>-1623001.3086</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>14.3</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4173,12 +3963,14 @@
         <v>-1623011.3086</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>14.4</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4214,8 +4006,12 @@
       <c r="H107" t="n">
         <v>1</v>
       </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4251,8 +4047,12 @@
       <c r="H108" t="n">
         <v>1</v>
       </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J108" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4286,10 +4086,14 @@
         <v>-1921186.965</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J109" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4323,12 +4127,14 @@
         <v>-1920076.965</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>14.2</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4362,12 +4168,14 @@
         <v>-1826267.556221379</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>14.4</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4401,10 +4209,14 @@
         <v>-1826233.926121379</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J112" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4438,10 +4250,14 @@
         <v>-1826233.926121379</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J113" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4478,7 +4294,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4512,10 +4330,14 @@
         <v>-1826233.926121379</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J115" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4549,10 +4371,14 @@
         <v>-1828714.015121379</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J116" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4588,8 +4414,12 @@
       <c r="H117" t="n">
         <v>1</v>
       </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J117" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4625,8 +4455,12 @@
       <c r="H118" t="n">
         <v>1</v>
       </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J118" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4662,8 +4496,12 @@
       <c r="H119" t="n">
         <v>1</v>
       </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J119" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4699,8 +4537,12 @@
       <c r="H120" t="n">
         <v>1</v>
       </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J120" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4736,8 +4578,12 @@
       <c r="H121" t="n">
         <v>1</v>
       </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J121" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4771,12 +4617,14 @@
         <v>-1808272.991421379</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>14.5</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4812,8 +4660,12 @@
       <c r="H123" t="n">
         <v>1</v>
       </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J123" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4847,12 +4699,14 @@
         <v>-1808272.991421379</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>14.6</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4888,8 +4742,12 @@
       <c r="H125" t="n">
         <v>1</v>
       </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J125" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4923,12 +4781,14 @@
         <v>-1792095.478521379</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>14.7</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4962,10 +4822,12 @@
         <v>-1792095.478521379</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4999,10 +4861,14 @@
         <v>-1819295.478521379</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J128" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5038,8 +4904,12 @@
       <c r="H129" t="n">
         <v>1</v>
       </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J129" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5073,10 +4943,14 @@
         <v>-1814150.638321379</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J130" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5110,10 +4984,14 @@
         <v>-1814150.638321379</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J131" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5147,10 +5025,14 @@
         <v>-1814150.638321379</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J132" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5184,10 +5066,12 @@
         <v>-1811353.537721379</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5224,7 +5108,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5258,10 +5144,12 @@
         <v>-1811353.537721379</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5298,7 +5186,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5335,7 +5225,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5372,7 +5264,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5406,10 +5300,12 @@
         <v>-1389682.208821379</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5443,10 +5339,12 @@
         <v>-1389682.208821379</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5480,10 +5378,12 @@
         <v>-1389682.208821379</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5520,7 +5420,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5554,10 +5456,14 @@
         <v>-1453618.477421379</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>15</v>
+      </c>
+      <c r="J143" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5594,7 +5500,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5628,10 +5536,14 @@
         <v>-1517966.746021379</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J145" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5668,7 +5580,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5704,8 +5618,12 @@
       <c r="H147" t="n">
         <v>1</v>
       </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J147" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5739,10 +5657,12 @@
         <v>-1534066.746021379</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5778,8 +5698,12 @@
       <c r="H149" t="n">
         <v>1</v>
       </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J149" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5816,7 +5740,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5852,8 +5778,12 @@
       <c r="H151" t="n">
         <v>1</v>
       </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J151" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5887,10 +5817,12 @@
         <v>-1484156.746021379</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5926,8 +5858,12 @@
       <c r="H153" t="n">
         <v>1</v>
       </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>15</v>
+      </c>
+      <c r="J153" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5961,10 +5897,12 @@
         <v>-1472091.031021379</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6000,8 +5938,12 @@
       <c r="H155" t="n">
         <v>1</v>
       </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J155" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6038,7 +5980,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6072,10 +6016,12 @@
         <v>-1891605.806321379</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6112,7 +6058,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6146,10 +6094,12 @@
         <v>-1932595.806321379</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6183,10 +6133,12 @@
         <v>-1932595.806321379</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6220,10 +6172,12 @@
         <v>-1926159.842921379</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6257,16 +6211,20 @@
         <v>-1984743.430621379</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
       <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
@@ -6292,11 +6250,19 @@
         <v>-1978743.430621379</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J163" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6291,17 @@
         <v>-1954516.953621379</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6330,19 @@
         <v>-2015716.953621379</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6371,19 @@
         <v>-2043441.329121379</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J166" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6412,19 @@
         <v>-2043429.329121379</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J167" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +6453,19 @@
         <v>-2043429.329121379</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>15</v>
+      </c>
+      <c r="J168" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6492,9 +6496,17 @@
       <c r="H169" t="n">
         <v>1</v>
       </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>15</v>
+      </c>
+      <c r="J169" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +6535,19 @@
         <v>-2043429.329121379</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>15</v>
+      </c>
+      <c r="J170" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +6576,19 @@
         <v>-2043449.329121379</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>15</v>
+      </c>
+      <c r="J171" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +6617,19 @@
         <v>-1986249.329121379</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J172" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +6658,19 @@
         <v>-1986249.329121379</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J173" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +6699,19 @@
         <v>-1986249.329121379</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J174" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +6740,19 @@
         <v>-1986249.329121379</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J175" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +6781,19 @@
         <v>-1986249.329121379</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J176" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6756,9 +6824,17 @@
       <c r="H177" t="n">
         <v>1</v>
       </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J177" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6787,11 +6863,17 @@
         <v>-1949049.329121379</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +6905,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +6944,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +6983,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6922,8 +7022,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6955,8 +7061,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6988,8 +7100,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7136,17 @@
         <v>-1552792.21792138</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +7178,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7087,8 +7217,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +7253,17 @@
         <v>-1556179.21792138</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +7292,17 @@
         <v>-1529602.12982138</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +7334,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +7370,17 @@
         <v>-1532103.95482138</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +7412,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7448,17 @@
         <v>-1694299.98972138</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +7490,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +7529,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +7568,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +7607,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +7646,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +7685,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +7721,17 @@
         <v>-1624935.87982138</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +7763,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +7799,17 @@
         <v>-1625643.74042138</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +7838,17 @@
         <v>-1625643.74042138</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7645,11 +7877,17 @@
         <v>-1625643.74042138</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +7916,17 @@
         <v>-1625643.74042138</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +7958,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +7997,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +8036,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +8072,17 @@
         <v>-1625643.74042138</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +8114,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7879,8 +8153,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +8189,17 @@
         <v>-1592866.78122138</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +8228,19 @@
         <v>-1592866.78122138</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>15</v>
+      </c>
+      <c r="J213" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +8269,19 @@
         <v>-1592866.78122138</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>15</v>
+      </c>
+      <c r="J214" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +8310,19 @@
         <v>-1662866.78122138</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>15</v>
+      </c>
+      <c r="J215" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +8351,19 @@
         <v>-1612866.78122138</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J216" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +8392,19 @@
         <v>-1612866.78122138</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>15</v>
+      </c>
+      <c r="J217" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +8433,17 @@
         <v>-1612866.78122138</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8472,19 @@
         <v>-1612866.78122138</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>15</v>
+      </c>
+      <c r="J219" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +8513,19 @@
         <v>-1622766.78122138</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>15</v>
+      </c>
+      <c r="J220" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8554,19 @@
         <v>-1622200.78122138</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J221" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8595,17 @@
         <v>-1622200.78122138</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8634,17 @@
         <v>-1622200.78122138</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8307,9 +8675,17 @@
       <c r="H224" t="n">
         <v>1</v>
       </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="I224" t="n">
+        <v>15</v>
+      </c>
+      <c r="J224" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8714,19 @@
         <v>-1613810.78122138</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J225" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8755,19 @@
         <v>-1613810.78122138</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>15</v>
+      </c>
+      <c r="J226" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +8799,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8835,17 @@
         <v>-1613840.78122138</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +8874,19 @@
         <v>-1603163.83722138</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J229" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +8915,17 @@
         <v>-1604238.78192138</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +8954,17 @@
         <v>-1558738.78192138</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8993,17 @@
         <v>-1558738.78192138</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +9032,17 @@
         <v>-1559558.24812138</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8637,9 +9073,17 @@
       <c r="H234" t="n">
         <v>1</v>
       </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J234" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +9112,17 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +9151,17 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +9190,17 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +9229,17 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +9268,17 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8836,8 +9310,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8869,8 +9349,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +9385,19 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J242" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +9426,19 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J243" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8968,8 +9470,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +9506,19 @@
         <v>-2108467.97032138</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J245" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +9547,19 @@
         <v>-2108467.97032138</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J246" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9064,11 +9588,19 @@
         <v>-2034670.83894338</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J247" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9099,9 +9631,17 @@
       <c r="H248" t="n">
         <v>1</v>
       </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>15</v>
+      </c>
+      <c r="J248" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +9670,19 @@
         <v>-2034670.83894338</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>15</v>
+      </c>
+      <c r="J249" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +9711,19 @@
         <v>-2034670.83894338</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>15</v>
+      </c>
+      <c r="J250" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9199,8 +9755,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9229,11 +9791,19 @@
         <v>-2030694.83894338</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J252" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9265,8 +9835,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9298,8 +9874,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9331,8 +9913,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9364,8 +9952,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9988,17 @@
         <v>-1984848.79794338</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +10027,17 @@
         <v>-2211008.46894338</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +10066,17 @@
         <v>-2148544.25294338</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9493,11 +10105,17 @@
         <v>-2148564.25294338</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +10144,17 @@
         <v>-2142334.24094338</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +10183,17 @@
         <v>-2142334.24094338</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +10222,17 @@
         <v>-2142334.24094338</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +10261,17 @@
         <v>-2142334.24094338</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +10300,17 @@
         <v>-2191402.34944338</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +10339,17 @@
         <v>-2191402.34944338</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +10378,17 @@
         <v>-2191292.34944338</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +10417,17 @@
         <v>-2191292.34944338</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +10456,17 @@
         <v>-2191292.34944338</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +10495,17 @@
         <v>-2191292.34944338</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +10534,17 @@
         <v>-2170124.252669186</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +10573,17 @@
         <v>-2170124.252669186</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9925,8 +10615,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +10651,17 @@
         <v>-2170124.252669186</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9991,8 +10693,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +10729,17 @@
         <v>-2149124.252669186</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10054,11 +10768,17 @@
         <v>-2149124.252669186</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +10807,17 @@
         <v>-2149204.252669186</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10846,17 @@
         <v>-2149204.252669186</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +10885,17 @@
         <v>-2149204.252669186</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10186,11 +10924,17 @@
         <v>-2149204.252669186</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +10963,17 @@
         <v>-2149204.252669186</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +11002,17 @@
         <v>-2149204.252669186</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10288,8 +11044,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10321,8 +11083,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10354,8 +11122,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10387,8 +11161,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10420,8 +11200,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10453,8 +11239,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10486,8 +11278,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10519,8 +11317,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10552,8 +11356,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10585,8 +11395,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10618,8 +11434,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10651,8 +11473,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10684,8 +11512,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10717,8 +11551,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10750,8 +11590,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10783,8 +11629,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10816,8 +11668,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10849,8 +11707,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10882,8 +11746,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10915,8 +11785,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10948,8 +11824,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10981,8 +11863,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11014,8 +11902,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11047,8 +11941,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11080,8 +11980,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11113,8 +12019,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11146,8 +12058,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11179,8 +12097,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11212,8 +12136,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11245,8 +12175,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11278,8 +12214,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11311,8 +12253,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11344,8 +12292,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11377,8 +12331,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11410,8 +12370,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11443,8 +12409,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11476,8 +12448,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11509,8 +12487,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11542,8 +12526,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11575,8 +12565,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11608,8 +12604,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11641,8 +12643,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11674,8 +12682,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11707,8 +12721,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11740,8 +12760,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11773,8 +12799,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11806,8 +12838,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11839,8 +12877,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11872,8 +12916,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11902,11 +12952,17 @@
         <v>-1621388.393069186</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11938,8 +12994,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11971,8 +13033,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12004,8 +13072,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12037,8 +13111,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12070,8 +13150,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12103,8 +13189,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12136,8 +13228,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12169,8 +13267,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12202,8 +13306,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12235,8 +13345,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12268,8 +13384,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12301,8 +13423,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12334,8 +13462,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12367,8 +13501,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12400,8 +13540,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12430,15 +13576,23 @@
         <v>-1863556.57772816</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
+        <v>1.050172413793104</v>
+      </c>
+      <c r="M349" t="n">
+        <v>1.057553956834532</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -12496,7 +13650,7 @@
         <v>-1827957.10622816</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12529,7 +13683,7 @@
         <v>-1797861.78452816</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12562,7 +13716,7 @@
         <v>-1826135.02672816</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12628,7 +13782,7 @@
         <v>-1797942.44262816</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12661,7 +13815,7 @@
         <v>-1784181.89262816</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12694,7 +13848,7 @@
         <v>-1784181.89262816</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12727,7 +13881,7 @@
         <v>-1784181.89262816</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12760,7 +13914,7 @@
         <v>-1784181.89262816</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12826,7 +13980,7 @@
         <v>-1744804.82262816</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12892,7 +14046,7 @@
         <v>-1869189.18172816</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12925,7 +14079,7 @@
         <v>-1976438.61732816</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12958,7 +14112,7 @@
         <v>-1976438.61732816</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12991,7 +14145,7 @@
         <v>-1954817.61732816</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13024,7 +14178,7 @@
         <v>-1954817.61732816</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13057,7 +14211,7 @@
         <v>-1956106.154128159</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13090,7 +14244,7 @@
         <v>-1921525.844128159</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13123,7 +14277,7 @@
         <v>-1925117.494128159</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13156,7 +14310,7 @@
         <v>-1925117.494128159</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13189,7 +14343,7 @@
         <v>-1818046.581928159</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13222,7 +14376,7 @@
         <v>-1818046.581928159</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13255,7 +14409,7 @@
         <v>-1808046.581928159</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13288,7 +14442,7 @@
         <v>-1808046.581928159</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13321,7 +14475,7 @@
         <v>-1808046.581928159</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13354,7 +14508,7 @@
         <v>-1809046.581928159</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13387,7 +14541,7 @@
         <v>-1755306.409228159</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13420,7 +14574,7 @@
         <v>-1755306.409228159</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13453,7 +14607,7 @@
         <v>-1755416.409228159</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13486,7 +14640,7 @@
         <v>-1755406.409228159</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13519,7 +14673,7 @@
         <v>-1755406.409228159</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13552,7 +14706,7 @@
         <v>-1755428.409228159</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13585,7 +14739,7 @@
         <v>-1755428.409228159</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13618,7 +14772,7 @@
         <v>-1747544.746228159</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13651,7 +14805,7 @@
         <v>-1747802.105328159</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13684,7 +14838,7 @@
         <v>-1747802.105328159</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13717,7 +14871,7 @@
         <v>-1747790.105328159</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13750,7 +14904,7 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13783,7 +14937,7 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13816,7 +14970,7 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13849,7 +15003,7 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13882,7 +15036,7 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13915,7 +15069,7 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13948,7 +15102,7 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13981,7 +15135,7 @@
         <v>-1857567.119328159</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14014,7 +15168,7 @@
         <v>-1969850.840128159</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14047,7 +15201,7 @@
         <v>-1969850.840128159</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14058,6 +15212,6 @@
       <c r="M398" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest MITH.xlsx
+++ b/BackTest/2019-10-28 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3520,14 +3520,10 @@
         <v>-1584569.1436</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J95" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
@@ -3557,19 +3553,11 @@
         <v>-1592284.6713</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J96" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3598,19 +3586,11 @@
         <v>-1592284.6713</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3639,14 +3619,10 @@
         <v>-1599928.2688</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
@@ -3676,19 +3652,11 @@
         <v>-1599928.2688</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J99" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3717,19 +3685,11 @@
         <v>-1599917.2688</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J100" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3758,19 +3718,11 @@
         <v>-1617648.2688</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J101" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3799,19 +3751,11 @@
         <v>-1621923.6856</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J102" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3840,19 +3784,11 @@
         <v>-1617837.6856</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J103" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3881,19 +3817,11 @@
         <v>-1623013.3086</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J104" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3922,19 +3850,11 @@
         <v>-1623001.3086</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J105" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3963,19 +3883,11 @@
         <v>-1623011.3086</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J106" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4004,19 +3916,11 @@
         <v>-1617847.6856</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J107" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4045,19 +3949,11 @@
         <v>-1920071.3262</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J108" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4086,19 +3982,11 @@
         <v>-1921186.965</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J109" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4127,19 +4015,11 @@
         <v>-1920076.965</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J110" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4168,19 +4048,11 @@
         <v>-1826267.556221379</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J111" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4209,19 +4081,11 @@
         <v>-1826233.926121379</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J112" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4250,19 +4114,11 @@
         <v>-1826233.926121379</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J113" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4294,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4330,19 +4180,11 @@
         <v>-1826233.926121379</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J115" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4371,19 +4213,11 @@
         <v>-1828714.015121379</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J116" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4412,19 +4246,11 @@
         <v>-1835258.863221379</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J117" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4453,19 +4279,11 @@
         <v>-1823271.917821379</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J118" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4494,19 +4312,11 @@
         <v>-1823271.917821379</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J119" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4535,19 +4345,11 @@
         <v>-1823783.109921379</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J120" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4576,19 +4378,11 @@
         <v>-1823783.109921379</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J121" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4617,19 +4411,11 @@
         <v>-1808272.991421379</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J122" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4658,19 +4444,11 @@
         <v>-1808272.991421379</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J123" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4699,19 +4477,11 @@
         <v>-1808272.991421379</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J124" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4740,19 +4510,11 @@
         <v>-1792095.478521379</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J125" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4781,19 +4543,11 @@
         <v>-1792095.478521379</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J126" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4825,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4861,19 +4609,11 @@
         <v>-1819295.478521379</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J128" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4902,19 +4642,11 @@
         <v>-1814150.638321379</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J129" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4943,19 +4675,11 @@
         <v>-1814150.638321379</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J130" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4984,19 +4708,11 @@
         <v>-1814150.638321379</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J131" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5025,19 +4741,11 @@
         <v>-1814150.638321379</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J132" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5069,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5108,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5147,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5186,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5225,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5264,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5303,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5339,17 +5005,11 @@
         <v>-1389682.208821379</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5378,17 +5038,11 @@
         <v>-1389682.208821379</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5417,17 +5071,11 @@
         <v>-1453618.477421379</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5456,19 +5104,11 @@
         <v>-1453618.477421379</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>15</v>
-      </c>
-      <c r="J143" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5497,17 +5137,11 @@
         <v>-1571337.196421379</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5536,19 +5170,11 @@
         <v>-1517966.746021379</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J145" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5577,17 +5203,11 @@
         <v>-1521966.746021379</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5616,19 +5236,11 @@
         <v>-1534066.746021379</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J147" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5660,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5696,19 +5302,11 @@
         <v>-1534056.746021379</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J149" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5740,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5776,19 +5368,11 @@
         <v>-1484156.746021379</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J151" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5820,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5856,19 +5434,11 @@
         <v>-1555156.746021379</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>15</v>
-      </c>
-      <c r="J153" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5897,17 +5467,11 @@
         <v>-1472091.031021379</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5936,19 +5500,11 @@
         <v>-1472101.304921379</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J155" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5977,17 +5533,11 @@
         <v>-1440853.391521379</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6016,17 +5566,11 @@
         <v>-1891605.806321379</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6055,17 +5599,11 @@
         <v>-1891595.806321379</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6094,17 +5632,11 @@
         <v>-1932595.806321379</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6133,17 +5665,11 @@
         <v>-1932595.806321379</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6172,17 +5698,11 @@
         <v>-1926159.842921379</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6211,17 +5731,11 @@
         <v>-1984743.430621379</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6250,19 +5764,11 @@
         <v>-1978743.430621379</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J163" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6291,17 +5797,11 @@
         <v>-1954516.953621379</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6330,19 +5830,11 @@
         <v>-2015716.953621379</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J165" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6371,19 +5863,11 @@
         <v>-2043441.329121379</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J166" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6412,19 +5896,11 @@
         <v>-2043429.329121379</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J167" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6453,19 +5929,11 @@
         <v>-2043429.329121379</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>15</v>
-      </c>
-      <c r="J168" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6494,19 +5962,11 @@
         <v>-2043429.329121379</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>15</v>
-      </c>
-      <c r="J169" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6535,19 +5995,11 @@
         <v>-2043429.329121379</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>15</v>
-      </c>
-      <c r="J170" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6576,19 +6028,11 @@
         <v>-2043449.329121379</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>15</v>
-      </c>
-      <c r="J171" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6617,19 +6061,11 @@
         <v>-1986249.329121379</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J172" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6658,19 +6094,11 @@
         <v>-1986249.329121379</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J173" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6699,19 +6127,11 @@
         <v>-1986249.329121379</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J174" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6740,19 +6160,11 @@
         <v>-1986249.329121379</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J175" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6781,19 +6193,11 @@
         <v>-1986249.329121379</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J176" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6822,19 +6226,11 @@
         <v>-1949049.329121379</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J177" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6863,17 +6259,11 @@
         <v>-1949049.329121379</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6902,17 +6292,11 @@
         <v>-1949069.329121379</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6941,17 +6325,11 @@
         <v>-1650885.90812138</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6980,17 +6358,11 @@
         <v>-1650895.90812138</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7019,17 +6391,11 @@
         <v>-1649889.19672138</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7058,17 +6424,11 @@
         <v>-1649889.19672138</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7097,17 +6457,11 @@
         <v>-1550792.21792138</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7139,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7178,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7217,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7256,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7295,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7334,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7373,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7412,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7451,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7490,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7529,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7568,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7607,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7643,17 +6919,11 @@
         <v>-1624935.87982138</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7685,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7724,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7763,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7802,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7841,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7880,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7919,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7958,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7997,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8033,17 +7249,15 @@
         <v>-1625643.74042138</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>14.9</v>
+      </c>
       <c r="J208" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>14.9</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8072,15 +7286,17 @@
         <v>-1625643.74042138</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>14.9</v>
+      </c>
       <c r="J209" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L209" t="n">
@@ -8111,15 +7327,17 @@
         <v>-1625643.74042138</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>14.9</v>
+      </c>
       <c r="J210" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L210" t="n">
@@ -8150,17 +7368,15 @@
         <v>-1592866.78122138</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>14.9</v>
+      </c>
       <c r="J211" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>14.9</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8189,15 +7405,17 @@
         <v>-1592866.78122138</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>15</v>
+      </c>
       <c r="J212" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L212" t="n">
@@ -8228,17 +7446,15 @@
         <v>-1592866.78122138</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L213" t="n">
@@ -8269,19 +7485,11 @@
         <v>-1592866.78122138</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>15</v>
-      </c>
-      <c r="J214" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8310,19 +7518,11 @@
         <v>-1662866.78122138</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>15</v>
-      </c>
-      <c r="J215" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8357,13 +7557,9 @@
         <v>14.8</v>
       </c>
       <c r="J216" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>14.8</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8392,17 +7588,15 @@
         <v>-1612866.78122138</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L217" t="n">
@@ -8437,11 +7631,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L218" t="n">
@@ -8472,19 +7666,11 @@
         <v>-1612866.78122138</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>15</v>
-      </c>
-      <c r="J219" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8513,19 +7699,11 @@
         <v>-1622766.78122138</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>15</v>
-      </c>
-      <c r="J220" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8554,19 +7732,11 @@
         <v>-1622200.78122138</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J221" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8598,14 +7768,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8637,14 +7801,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8673,19 +7831,11 @@
         <v>-1639200.78122138</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>15</v>
-      </c>
-      <c r="J224" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8714,19 +7864,11 @@
         <v>-1613810.78122138</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J225" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8755,19 +7897,11 @@
         <v>-1613810.78122138</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>15</v>
-      </c>
-      <c r="J226" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8799,14 +7933,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8838,14 +7966,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8874,19 +7996,11 @@
         <v>-1603163.83722138</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J229" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8918,14 +8032,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8957,14 +8065,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8996,14 +8098,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9035,14 +8131,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9076,12 +8166,10 @@
       <c r="I234" t="n">
         <v>14.8</v>
       </c>
-      <c r="J234" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L234" t="n">
@@ -9115,9 +8203,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9154,9 +8240,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9190,12 +8274,12 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>14.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9229,12 +8313,12 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>14.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9268,12 +8352,12 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>14.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9307,12 +8391,12 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>14.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9346,12 +8430,12 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>14.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9385,14 +8469,10 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J242" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9426,14 +8506,10 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J243" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9470,9 +8546,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9506,14 +8580,10 @@
         <v>-2108467.97032138</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J245" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9547,14 +8617,10 @@
         <v>-2108467.97032138</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J246" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9593,9 +8659,7 @@
       <c r="I247" t="n">
         <v>14.8</v>
       </c>
-      <c r="J247" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9629,14 +8693,10 @@
         <v>-2034670.83894338</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>15</v>
-      </c>
-      <c r="J248" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9670,14 +8730,10 @@
         <v>-2034670.83894338</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>15</v>
-      </c>
-      <c r="J249" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9716,9 +8772,7 @@
       <c r="I250" t="n">
         <v>15</v>
       </c>
-      <c r="J250" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9752,12 +8806,12 @@
         <v>-2034694.83894338</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>14.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>15</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9791,14 +8845,10 @@
         <v>-2030694.83894338</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J252" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9835,9 +8885,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9874,9 +8922,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9913,9 +8959,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9952,9 +8996,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9991,9 +9033,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10030,9 +9070,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10069,9 +9107,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10108,9 +9144,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10147,9 +9181,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10186,9 +9218,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10225,9 +9255,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10264,9 +9292,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10303,9 +9329,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10342,9 +9366,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10381,9 +9403,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10420,9 +9440,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10459,9 +9477,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10498,9 +9514,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10537,9 +9551,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10576,9 +9588,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10615,9 +9625,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10654,9 +9662,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10693,9 +9699,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10732,9 +9736,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10771,9 +9773,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10810,9 +9810,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10849,9 +9847,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10888,9 +9884,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10927,9 +9921,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10966,9 +9958,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11005,9 +9995,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11044,9 +10032,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11083,9 +10069,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11122,9 +10106,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11161,9 +10143,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11200,9 +10180,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11239,9 +10217,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11278,9 +10254,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11317,9 +10291,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11356,9 +10328,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11395,9 +10365,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11434,9 +10402,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11473,9 +10439,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11512,9 +10476,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11551,9 +10513,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11590,9 +10550,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11629,9 +10587,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11668,9 +10624,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11707,9 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11746,9 +10698,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11785,9 +10735,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11824,9 +10772,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11863,9 +10809,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11902,9 +10846,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11941,9 +10883,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11980,9 +10920,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12019,9 +10957,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12058,9 +10994,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12097,9 +11031,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12136,9 +11068,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12175,9 +11105,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12214,9 +11142,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12253,9 +11179,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12292,9 +11216,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12331,9 +11253,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12370,9 +11290,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12409,9 +11327,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12448,9 +11364,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12487,9 +11401,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12526,9 +11438,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12565,9 +11475,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12604,9 +11512,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12643,9 +11549,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12682,9 +11586,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12721,9 +11623,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12760,9 +11660,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12799,9 +11697,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12838,9 +11734,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12877,9 +11771,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12916,9 +11808,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12955,9 +11845,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12994,9 +11882,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13033,9 +11919,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13072,9 +11956,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13111,9 +11993,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13150,9 +12030,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13189,9 +12067,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13228,9 +12104,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13267,9 +12141,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13306,9 +12178,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13345,9 +12215,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13384,9 +12252,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13423,9 +12289,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13462,9 +12326,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13501,9 +12363,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13540,9 +12400,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13576,23 +12434,19 @@
         <v>-1863556.57772816</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L349" t="n">
-        <v>1.050172413793104</v>
-      </c>
-      <c r="M349" t="n">
-        <v>1.057553956834532</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13621,7 +12475,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13650,11 +12508,15 @@
         <v>-1827957.10622816</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13683,11 +12545,15 @@
         <v>-1797861.78452816</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13716,11 +12582,15 @@
         <v>-1826135.02672816</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13753,7 +12623,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13782,11 +12656,15 @@
         <v>-1797942.44262816</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13815,11 +12693,15 @@
         <v>-1784181.89262816</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13848,11 +12730,15 @@
         <v>-1784181.89262816</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13881,11 +12767,15 @@
         <v>-1784181.89262816</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13914,11 +12804,15 @@
         <v>-1784181.89262816</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13951,7 +12845,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13980,11 +12878,15 @@
         <v>-1744804.82262816</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14017,7 +12919,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14046,11 +12952,15 @@
         <v>-1869189.18172816</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14079,11 +12989,15 @@
         <v>-1976438.61732816</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14112,11 +13026,15 @@
         <v>-1976438.61732816</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14145,11 +13063,15 @@
         <v>-1954817.61732816</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14178,11 +13100,15 @@
         <v>-1954817.61732816</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14211,11 +13137,15 @@
         <v>-1956106.154128159</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14244,11 +13174,15 @@
         <v>-1921525.844128159</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14277,11 +13211,15 @@
         <v>-1925117.494128159</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14310,11 +13248,15 @@
         <v>-1925117.494128159</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14343,11 +13285,15 @@
         <v>-1818046.581928159</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14376,11 +13322,15 @@
         <v>-1818046.581928159</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14409,11 +13359,15 @@
         <v>-1808046.581928159</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14442,11 +13396,15 @@
         <v>-1808046.581928159</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14475,11 +13433,15 @@
         <v>-1808046.581928159</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14508,11 +13470,15 @@
         <v>-1809046.581928159</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14541,11 +13507,15 @@
         <v>-1755306.409228159</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14574,11 +13544,15 @@
         <v>-1755306.409228159</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14607,11 +13581,15 @@
         <v>-1755416.409228159</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14640,11 +13618,15 @@
         <v>-1755406.409228159</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14673,11 +13655,15 @@
         <v>-1755406.409228159</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14706,11 +13692,15 @@
         <v>-1755428.409228159</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14739,11 +13729,15 @@
         <v>-1755428.409228159</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14772,11 +13766,15 @@
         <v>-1747544.746228159</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14805,11 +13803,15 @@
         <v>-1747802.105328159</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14838,11 +13840,15 @@
         <v>-1747802.105328159</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14871,11 +13877,15 @@
         <v>-1747790.105328159</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14904,11 +13914,15 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14937,11 +13951,15 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14970,11 +13988,15 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15003,11 +14025,15 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15036,11 +14062,15 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15069,11 +14099,15 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15102,11 +14136,15 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15135,11 +14173,15 @@
         <v>-1857567.119328159</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15168,11 +14210,15 @@
         <v>-1969850.840128159</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15201,17 +14247,21 @@
         <v>-1969850.840128159</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
       <c r="M398" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest MITH.xlsx
+++ b/BackTest/2019-10-28 BackTest MITH.xlsx
@@ -3520,10 +3520,14 @@
         <v>-1584569.1436</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
@@ -3553,11 +3557,19 @@
         <v>-1592284.6713</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J96" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3598,19 @@
         <v>-1592284.6713</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J97" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,10 +3639,14 @@
         <v>-1599928.2688</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
@@ -3652,11 +3676,19 @@
         <v>-1599928.2688</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3717,19 @@
         <v>-1599917.2688</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J100" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3758,19 @@
         <v>-1617648.2688</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3799,19 @@
         <v>-1621923.6856</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J102" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3840,19 @@
         <v>-1617837.6856</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J103" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3881,19 @@
         <v>-1623013.3086</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J104" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3922,19 @@
         <v>-1623001.3086</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3963,19 @@
         <v>-1623011.3086</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J106" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4004,19 @@
         <v>-1617847.6856</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4045,19 @@
         <v>-1920071.3262</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J108" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4086,19 @@
         <v>-1921186.965</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J109" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4127,19 @@
         <v>-1920076.965</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4168,19 @@
         <v>-1826267.556221379</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J111" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4209,19 @@
         <v>-1826233.926121379</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J112" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4250,19 @@
         <v>-1826233.926121379</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J113" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4291,19 @@
         <v>-1826233.926121379</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J114" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4332,19 @@
         <v>-1826233.926121379</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J115" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4376,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4412,19 @@
         <v>-1835258.863221379</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J117" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4453,19 @@
         <v>-1823271.917821379</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J118" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4494,19 @@
         <v>-1823271.917821379</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J119" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4535,19 @@
         <v>-1823783.109921379</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J120" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4576,19 @@
         <v>-1823783.109921379</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J121" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4617,19 @@
         <v>-1808272.991421379</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J122" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4658,19 @@
         <v>-1808272.991421379</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J123" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4699,19 @@
         <v>-1808272.991421379</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J124" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4740,19 @@
         <v>-1792095.478521379</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J125" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4781,19 @@
         <v>-1792095.478521379</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J126" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4825,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4861,19 @@
         <v>-1819295.478521379</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J128" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4902,19 @@
         <v>-1814150.638321379</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J129" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +4943,19 @@
         <v>-1814150.638321379</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J130" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +4984,19 @@
         <v>-1814150.638321379</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J131" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +5025,19 @@
         <v>-1814150.638321379</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J132" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +5066,19 @@
         <v>-1811353.537721379</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J133" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +5107,19 @@
         <v>-1811353.537721379</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J134" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +5148,19 @@
         <v>-1811353.537721379</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J135" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +5189,19 @@
         <v>-1566671.287721379</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J136" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5233,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5272,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5308,19 @@
         <v>-1389682.208821379</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5349,17 @@
         <v>-1389682.208821379</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5388,17 @@
         <v>-1389682.208821379</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5427,17 @@
         <v>-1453618.477421379</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5466,17 @@
         <v>-1453618.477421379</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5505,17 @@
         <v>-1571337.196421379</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5544,17 @@
         <v>-1517966.746021379</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5583,17 @@
         <v>-1521966.746021379</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5622,17 @@
         <v>-1534066.746021379</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5664,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5703,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5742,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5781,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5820,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5856,19 @@
         <v>-1555156.746021379</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>15</v>
+      </c>
+      <c r="J153" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5897,17 @@
         <v>-1472091.031021379</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +5939,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5975,17 @@
         <v>-1440853.391521379</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +6014,17 @@
         <v>-1891605.806321379</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +6053,17 @@
         <v>-1891595.806321379</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +6092,17 @@
         <v>-1932595.806321379</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +6131,17 @@
         <v>-1932595.806321379</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +6170,17 @@
         <v>-1926159.842921379</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +6209,17 @@
         <v>-1984743.430621379</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +6248,17 @@
         <v>-1978743.430621379</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +6287,17 @@
         <v>-1954516.953621379</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +6326,17 @@
         <v>-2015716.953621379</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +6365,17 @@
         <v>-2043441.329121379</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6404,17 @@
         <v>-2043429.329121379</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6443,17 @@
         <v>-2043429.329121379</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6482,17 @@
         <v>-2043429.329121379</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6521,17 @@
         <v>-2043429.329121379</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6560,17 @@
         <v>-2043449.329121379</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6599,17 @@
         <v>-1986249.329121379</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6641,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6680,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +6719,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +6758,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6794,17 @@
         <v>-1949049.329121379</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6833,17 @@
         <v>-1949049.329121379</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6872,17 @@
         <v>-1949069.329121379</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6911,17 @@
         <v>-1650885.90812138</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6950,17 @@
         <v>-1650895.90812138</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6989,17 @@
         <v>-1649889.19672138</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +7028,17 @@
         <v>-1649889.19672138</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +7067,17 @@
         <v>-1550792.21792138</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +7109,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +7148,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +7187,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +7226,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6625,8 +7265,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +7304,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +7343,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7382,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +7421,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +7460,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +7499,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +7538,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +7577,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +7613,17 @@
         <v>-1624935.87982138</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6955,8 +7655,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6988,8 +7694,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7021,8 +7733,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +7772,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7087,8 +7811,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +7850,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +7889,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +7928,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +7967,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,15 +8003,17 @@
         <v>-1625643.74042138</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7286,17 +8042,15 @@
         <v>-1625643.74042138</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L209" t="n">
@@ -7327,17 +8081,15 @@
         <v>-1625643.74042138</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L210" t="n">
@@ -7368,15 +8120,17 @@
         <v>-1592866.78122138</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7405,17 +8159,15 @@
         <v>-1592866.78122138</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L212" t="n">
@@ -7446,15 +8198,17 @@
         <v>-1592866.78122138</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>15</v>
+      </c>
       <c r="J213" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L213" t="n">
@@ -7485,11 +8239,19 @@
         <v>-1592866.78122138</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>15</v>
+      </c>
+      <c r="J214" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7518,11 +8280,19 @@
         <v>-1662866.78122138</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>15</v>
+      </c>
+      <c r="J215" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7557,9 +8327,13 @@
         <v>14.8</v>
       </c>
       <c r="J216" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K216" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7592,11 +8366,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L217" t="n">
@@ -7631,11 +8405,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L218" t="n">
@@ -7666,11 +8440,19 @@
         <v>-1612866.78122138</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>15</v>
+      </c>
+      <c r="J219" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7699,11 +8481,19 @@
         <v>-1622766.78122138</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>15</v>
+      </c>
+      <c r="J220" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7732,11 +8522,19 @@
         <v>-1622200.78122138</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J221" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7768,8 +8566,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7801,8 +8605,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7834,8 +8644,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7864,11 +8680,19 @@
         <v>-1613810.78122138</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J225" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7900,8 +8724,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7933,8 +8763,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7966,8 +8802,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7999,8 +8841,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8032,8 +8880,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8065,8 +8919,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8098,8 +8958,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8131,8 +8997,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8161,15 +9033,15 @@
         <v>-2117497.97032138</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L234" t="n">
@@ -8203,7 +9075,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8240,7 +9114,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8274,12 +9150,12 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8313,12 +9189,12 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8352,12 +9228,12 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8391,12 +9267,12 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8430,12 +9306,12 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8472,7 +9348,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8509,7 +9387,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8546,7 +9426,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8583,7 +9465,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8620,7 +9504,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8654,12 +9540,12 @@
         <v>-2034670.83894338</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8696,7 +9582,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8733,7 +9621,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8767,12 +9657,12 @@
         <v>-2034670.83894338</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>15</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8806,12 +9696,12 @@
         <v>-2034694.83894338</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>15</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8848,7 +9738,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8885,7 +9777,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8922,7 +9816,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8959,7 +9855,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8996,7 +9894,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9033,7 +9933,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9070,7 +9972,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9107,7 +10011,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9144,7 +10050,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9181,7 +10089,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9218,7 +10128,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9255,7 +10167,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9292,7 +10206,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9329,7 +10245,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9366,7 +10284,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9403,7 +10323,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9440,7 +10362,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9477,7 +10401,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9514,7 +10440,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9551,7 +10479,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9588,7 +10518,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9625,7 +10557,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9662,7 +10596,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9699,7 +10635,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9736,7 +10674,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9773,7 +10713,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9810,7 +10752,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9847,7 +10791,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9884,7 +10830,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9921,7 +10869,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9958,7 +10908,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9995,7 +10947,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10032,7 +10986,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10069,7 +11025,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10106,7 +11064,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10143,7 +11103,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10180,7 +11142,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10217,7 +11181,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10254,7 +11220,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10291,7 +11259,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10328,7 +11298,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10365,7 +11337,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10402,7 +11376,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10439,7 +11415,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10476,7 +11454,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10513,7 +11493,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10550,7 +11532,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10587,7 +11571,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10624,7 +11610,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10661,7 +11649,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10698,7 +11688,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10735,7 +11727,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10772,7 +11766,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10809,7 +11805,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10846,7 +11844,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10883,7 +11883,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10920,7 +11922,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10957,7 +11961,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10994,7 +12000,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11031,7 +12039,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11068,7 +12078,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11105,7 +12117,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11142,7 +12156,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11179,7 +12195,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11216,7 +12234,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11253,7 +12273,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11290,7 +12312,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11327,7 +12351,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11364,7 +12390,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11401,7 +12429,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11438,7 +12468,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11475,7 +12507,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11512,7 +12546,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11549,7 +12585,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11586,7 +12624,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11623,7 +12663,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11660,7 +12702,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11694,10 +12738,14 @@
         <v>-2213075.860069185</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J329" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11731,10 +12779,14 @@
         <v>-1621388.393069186</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J330" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11771,7 +12823,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11808,7 +12862,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11845,7 +12901,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11882,7 +12940,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11919,7 +12979,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11956,7 +13018,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11990,10 +13054,14 @@
         <v>-1692640.046469186</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J337" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12027,10 +13095,14 @@
         <v>-1715585.429469185</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J338" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12064,10 +13136,14 @@
         <v>-1715585.429469185</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J339" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12101,10 +13177,14 @@
         <v>-1646508.145469185</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J340" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12138,10 +13218,14 @@
         <v>-1690808.145469185</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J341" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12178,7 +13262,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12215,7 +13301,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12249,10 +13337,14 @@
         <v>-1674588.914769185</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J344" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12289,7 +13381,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12326,7 +13420,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12363,7 +13459,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12400,7 +13498,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12437,7 +13537,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12474,7 +13576,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12511,7 +13615,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12548,7 +13654,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12585,7 +13693,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12622,7 +13732,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12659,7 +13771,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12696,7 +13810,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12733,7 +13849,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12770,7 +13888,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12807,7 +13927,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12844,7 +13966,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12881,7 +14005,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12918,7 +14044,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12955,7 +14083,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12992,7 +14122,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13029,7 +14161,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13066,7 +14200,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13103,7 +14239,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13140,7 +14278,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13177,7 +14317,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13214,7 +14356,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13251,7 +14395,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13288,7 +14434,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13325,7 +14473,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13362,7 +14512,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13396,19 +14548,23 @@
         <v>-1808046.581928159</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
+        <v>1.084655172413793</v>
+      </c>
+      <c r="M375" t="n">
+        <v>1.057553956834532</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -13433,15 +14589,11 @@
         <v>-1808046.581928159</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13470,15 +14622,11 @@
         <v>-1809046.581928159</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13507,15 +14655,11 @@
         <v>-1755306.409228159</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13544,15 +14688,11 @@
         <v>-1755306.409228159</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13581,15 +14721,11 @@
         <v>-1755416.409228159</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13618,15 +14754,11 @@
         <v>-1755406.409228159</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13655,15 +14787,11 @@
         <v>-1755406.409228159</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13692,15 +14820,11 @@
         <v>-1755428.409228159</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13729,15 +14853,11 @@
         <v>-1755428.409228159</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13766,15 +14886,11 @@
         <v>-1747544.746228159</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13803,15 +14919,11 @@
         <v>-1747802.105328159</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13840,15 +14952,11 @@
         <v>-1747802.105328159</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13877,15 +14985,11 @@
         <v>-1747790.105328159</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13914,15 +15018,11 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13951,15 +15051,11 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13988,15 +15084,11 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14025,15 +15117,11 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14062,15 +15150,11 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14099,15 +15183,11 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14136,15 +15216,11 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14173,15 +15249,11 @@
         <v>-1857567.119328159</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14214,11 +15286,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14251,11 +15319,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
